--- a/랩미팅/교수님 disscusion/20180620.xlsx
+++ b/랩미팅/교수님 disscusion/20180620.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>MFLI 5 MHz Lock-in Amplifier</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,23 +36,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Function</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MF-MD Multi-demodulator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extending # of demodulators 1-&gt;4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF-MOD Am/FM Modulation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -247,6 +236,72 @@
   </si>
   <si>
     <t>20 mA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price (EUR)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF-PID Quad PID/PLL Controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF-MOD AM/FM Modulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 대리점 견적가(￦)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF-DIG Digitizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세 (10%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>환율 변환(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>￦)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extending # of demodulators
+(1-&gt;4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample memory increase
+(16kSa -&gt; 2.5MSa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세 (10%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF2TA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Amplifier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +309,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,16 +346,92 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -334,8 +468,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,23 +532,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -371,8 +582,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="나쁨" xfId="4" builtinId="27"/>
+    <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
     <cellStyle name="요약" xfId="1" builtinId="25"/>
     <cellStyle name="제목 2" xfId="2" builtinId="17"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -653,79 +929,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <v>8100</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2*1302</f>
+        <v>10546200</v>
+      </c>
+      <c r="F2" s="5">
+        <v>14480000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>5200</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E9" si="0">D3*1302</f>
+        <v>6770400</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3900</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>5077800</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6970000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>1562400</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2140000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>1562400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2140000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5">
+        <v>3503000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <f>SUM(D2:D6)</f>
+        <v>19600</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>25519200</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(F2:F7)</f>
+        <v>38533000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
         <f>SUM(D2:D4)</f>
-        <v>13200</v>
+        <v>17200</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>22394400</v>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM(F2:F4)+0.1*SUM(F2:F4)</f>
+        <v>33825000</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -752,236 +1128,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -996,4 +1372,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="21">
+        <v>8100</v>
+      </c>
+      <c r="E2" s="22">
+        <f>D2*1302</f>
+        <v>10546200</v>
+      </c>
+      <c r="F2" s="21">
+        <v>14480000</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="21">
+        <v>5200</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E7" si="0">D3*1302</f>
+        <v>6770400</v>
+      </c>
+      <c r="F3" s="21">
+        <v>9300000</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3900</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
+        <v>5077800</v>
+      </c>
+      <c r="F4" s="21">
+        <v>6970000</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="22">
+        <f>D5*1302</f>
+        <v>1562400</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2140000</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="21">
+        <f>SUM(D2:D5)</f>
+        <v>18400</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
+        <v>23956800</v>
+      </c>
+      <c r="F6" s="21">
+        <f>SUM(F2:F5)</f>
+        <v>32890000</v>
+      </c>
+      <c r="G6" s="27">
+        <f>F6*1.1</f>
+        <v>36179000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="16">
+        <f>SUM(D2:D4)</f>
+        <v>17200</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>22394400</v>
+      </c>
+      <c r="F7" s="16">
+        <f>SUM(F2:F4)</f>
+        <v>30750000</v>
+      </c>
+      <c r="G7" s="18">
+        <f>F7*1.1</f>
+        <v>33825000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E11" s="34">
+        <f>D11*1302</f>
+        <v>3385200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/랩미팅/교수님 disscusion/20180620.xlsx
+++ b/랩미팅/교수님 disscusion/20180620.xlsx
@@ -539,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +573,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,67 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,11 +1142,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1190,11 +1193,11 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1277,11 +1280,11 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -1323,20 +1326,20 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -1379,7 +1382,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,11 +1397,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
+      <c r="A1" s="25"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1414,132 +1417,132 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21">
+      <c r="C2" s="26"/>
+      <c r="D2" s="18">
         <v>8100</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <f>D2*1302</f>
         <v>10546200</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="18">
         <v>14480000</v>
       </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="21">
+      <c r="C3" s="26"/>
+      <c r="D3" s="18">
         <v>5200</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E7" si="0">D3*1302</f>
         <v>6770400</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>9300000</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>3900</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>5077800</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>6970000</v>
       </c>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>1200</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <f>D5*1302</f>
         <v>1562400</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>2140000</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="21">
+      <c r="B6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="18">
         <f>SUM(D2:D5)</f>
         <v>18400</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>23956800</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f>SUM(F2:F5)</f>
         <v>32890000</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <f>F6*1.1</f>
         <v>36179000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="16">
+      <c r="B7" s="12"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="13">
         <f>SUM(D2:D4)</f>
         <v>17200</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>22394400</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <f>SUM(F2:F4)</f>
         <v>30750000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <f>F7*1.1</f>
         <v>33825000</v>
       </c>
@@ -1552,19 +1555,23 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <v>2600</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <f>D11*1302</f>
         <v>3385200</v>
+      </c>
+      <c r="F11" s="35">
+        <f>SUM(F2,F4)</f>
+        <v>21450000</v>
       </c>
     </row>
   </sheetData>
